--- a/SchedulingData/static6/pso/scheduling1_1.xlsx
+++ b/SchedulingData/static6/pso/scheduling1_1.xlsx
@@ -462,211 +462,211 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond63</t>
+          <t>pond31</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>79.90000000000001</v>
+        <v>54.5</v>
       </c>
       <c r="E2" t="n">
-        <v>25.2</v>
+        <v>27.24</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond53</t>
+          <t>pond8</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>84.34</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="E3" t="n">
-        <v>25.736</v>
+        <v>25.44</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond59</t>
+          <t>pond23</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>84.34</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="D4" t="n">
-        <v>136.38</v>
+        <v>125.1</v>
       </c>
       <c r="E4" t="n">
-        <v>22.152</v>
+        <v>22.32</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond34</t>
+          <t>pond61</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>54.5</v>
       </c>
       <c r="D5" t="n">
-        <v>78.68000000000001</v>
+        <v>128.42</v>
       </c>
       <c r="E5" t="n">
-        <v>27.272</v>
+        <v>22.968</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond30</t>
+          <t>pond21</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>79.90000000000001</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>148.44</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="E6" t="n">
-        <v>20.976</v>
+        <v>24.96</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond12</t>
+          <t>pond50</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>78.68000000000001</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>153.24</v>
+        <v>77.2</v>
       </c>
       <c r="E7" t="n">
-        <v>22.436</v>
+        <v>25.92</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond61</t>
+          <t>pond12</t>
         </is>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>64.42</v>
+        <v>74.95999999999999</v>
       </c>
       <c r="E8" t="n">
-        <v>25.728</v>
+        <v>25.164</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond46</t>
+          <t>pond30</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>148.44</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="D9" t="n">
-        <v>214.44</v>
+        <v>125.64</v>
       </c>
       <c r="E9" t="n">
-        <v>15.516</v>
+        <v>20.736</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond32</t>
+          <t>pond47</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>214.44</v>
+        <v>125.1</v>
       </c>
       <c r="D10" t="n">
-        <v>272.24</v>
+        <v>179.5</v>
       </c>
       <c r="E10" t="n">
-        <v>11.856</v>
+        <v>18.52</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond23</t>
+          <t>pond5</t>
         </is>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>53.1</v>
+        <v>58.94</v>
       </c>
       <c r="E11" t="n">
-        <v>26.88</v>
+        <v>26.776</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond62</t>
+          <t>pond34</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>128.42</v>
       </c>
       <c r="D12" t="n">
-        <v>55.44</v>
+        <v>186.8</v>
       </c>
       <c r="E12" t="n">
-        <v>26.136</v>
+        <v>20.24</v>
       </c>
     </row>
     <row r="13">
@@ -675,112 +675,112 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond21</t>
+          <t>pond11</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>153.24</v>
+        <v>74.95999999999999</v>
       </c>
       <c r="D13" t="n">
-        <v>214.94</v>
+        <v>123.22</v>
       </c>
       <c r="E13" t="n">
-        <v>17.396</v>
+        <v>21.468</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond31</t>
+          <t>pond59</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>272.24</v>
+        <v>179.5</v>
       </c>
       <c r="D14" t="n">
-        <v>311.14</v>
+        <v>246.34</v>
       </c>
       <c r="E14" t="n">
-        <v>9.096</v>
+        <v>14.936</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond45</t>
+          <t>pond53</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>55.44</v>
+        <v>125.64</v>
       </c>
       <c r="D15" t="n">
-        <v>122.7</v>
+        <v>189.58</v>
       </c>
       <c r="E15" t="n">
-        <v>21.04</v>
+        <v>16.472</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond36</t>
+          <t>pond24</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>136.38</v>
+        <v>246.34</v>
       </c>
       <c r="D16" t="n">
-        <v>210.48</v>
+        <v>329.48</v>
       </c>
       <c r="E16" t="n">
-        <v>16.872</v>
+        <v>11.712</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond64</t>
+          <t>pond36</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>311.14</v>
+        <v>77.2</v>
       </c>
       <c r="D17" t="n">
-        <v>370.44</v>
+        <v>151.2</v>
       </c>
       <c r="E17" t="n">
-        <v>5.796</v>
+        <v>20.64</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond43</t>
+          <t>pond15</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>210.48</v>
+        <v>58.94</v>
       </c>
       <c r="D18" t="n">
-        <v>250.82</v>
+        <v>102.86</v>
       </c>
       <c r="E18" t="n">
-        <v>13.968</v>
+        <v>24.004</v>
       </c>
     </row>
     <row r="19">
@@ -789,74 +789,74 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond24</t>
+          <t>pond45</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>370.44</v>
+        <v>102.86</v>
       </c>
       <c r="D19" t="n">
-        <v>429.08</v>
+        <v>185.02</v>
       </c>
       <c r="E19" t="n">
-        <v>2.572</v>
+        <v>18.908</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond37</t>
+          <t>pond39</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>64.42</v>
+        <v>329.48</v>
       </c>
       <c r="D20" t="n">
-        <v>131.78</v>
+        <v>368.98</v>
       </c>
       <c r="E20" t="n">
-        <v>20.632</v>
+        <v>9.391999999999999</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond51</t>
+          <t>pond1</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>122.7</v>
+        <v>151.2</v>
       </c>
       <c r="D21" t="n">
-        <v>170.82</v>
+        <v>210.5</v>
       </c>
       <c r="E21" t="n">
-        <v>17.848</v>
+        <v>18.32</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond11</t>
+          <t>pond49</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>250.82</v>
+        <v>123.22</v>
       </c>
       <c r="D22" t="n">
-        <v>309.18</v>
+        <v>189.66</v>
       </c>
       <c r="E22" t="n">
-        <v>10.272</v>
+        <v>18.444</v>
       </c>
     </row>
     <row r="23">
@@ -869,127 +869,127 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>170.82</v>
+        <v>368.98</v>
       </c>
       <c r="D23" t="n">
-        <v>238.1</v>
+        <v>445.86</v>
       </c>
       <c r="E23" t="n">
-        <v>14.26</v>
+        <v>5.804</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond20</t>
+          <t>pond43</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>214.94</v>
+        <v>210.5</v>
       </c>
       <c r="D24" t="n">
-        <v>252.16</v>
+        <v>275.74</v>
       </c>
       <c r="E24" t="n">
-        <v>14.804</v>
+        <v>15.416</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond6</t>
+          <t>pond27</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>53.1</v>
+        <v>189.66</v>
       </c>
       <c r="D25" t="n">
-        <v>107.36</v>
+        <v>251.46</v>
       </c>
       <c r="E25" t="n">
-        <v>23.084</v>
+        <v>14.884</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond47</t>
+          <t>pond42</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>309.18</v>
+        <v>251.46</v>
       </c>
       <c r="D26" t="n">
-        <v>388.18</v>
+        <v>309.2</v>
       </c>
       <c r="E26" t="n">
-        <v>6.472</v>
+        <v>10.74</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond33</t>
+          <t>pond26</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>238.1</v>
+        <v>309.2</v>
       </c>
       <c r="D27" t="n">
-        <v>309.34</v>
+        <v>353.08</v>
       </c>
       <c r="E27" t="n">
-        <v>10.256</v>
+        <v>7.492</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond13</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>429.08</v>
+        <v>186.8</v>
       </c>
       <c r="D28" t="n">
-        <v>490.94</v>
+        <v>260.02</v>
       </c>
       <c r="E28" t="n">
-        <v>30</v>
+        <v>16.028</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pond5</t>
+          <t>pond64</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>490.94</v>
+        <v>189.58</v>
       </c>
       <c r="D29" t="n">
-        <v>554.88</v>
+        <v>243.68</v>
       </c>
       <c r="E29" t="n">
-        <v>26.776</v>
+        <v>13.172</v>
       </c>
     </row>
     <row r="30">
@@ -998,359 +998,359 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pond57</t>
+          <t>pond51</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>131.78</v>
+        <v>260.02</v>
       </c>
       <c r="D30" t="n">
-        <v>204.58</v>
+        <v>328.14</v>
       </c>
       <c r="E30" t="n">
-        <v>16.952</v>
+        <v>12.836</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pond48</t>
+          <t>pond57</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>309.34</v>
+        <v>353.08</v>
       </c>
       <c r="D31" t="n">
-        <v>385.44</v>
+        <v>416.18</v>
       </c>
       <c r="E31" t="n">
-        <v>6.716</v>
+        <v>3.812</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pond50</t>
+          <t>pond62</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>252.16</v>
+        <v>243.68</v>
       </c>
       <c r="D32" t="n">
-        <v>324.16</v>
+        <v>298.52</v>
       </c>
       <c r="E32" t="n">
-        <v>10.724</v>
+        <v>9.308</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pond27</t>
+          <t>pond6</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>324.16</v>
+        <v>298.52</v>
       </c>
       <c r="D33" t="n">
-        <v>381.06</v>
+        <v>372.88</v>
       </c>
       <c r="E33" t="n">
-        <v>7.164</v>
+        <v>5.512</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pond9</t>
+          <t>pond28</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>388.18</v>
+        <v>328.14</v>
       </c>
       <c r="D34" t="n">
-        <v>476.18</v>
+        <v>400.96</v>
       </c>
       <c r="E34" t="n">
-        <v>2.752</v>
+        <v>7.684</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pond15</t>
+          <t>pond16</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>107.36</v>
+        <v>372.88</v>
       </c>
       <c r="D35" t="n">
-        <v>146.38</v>
+        <v>414.16</v>
       </c>
       <c r="E35" t="n">
-        <v>20.312</v>
+        <v>3.004</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pond18</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>146.38</v>
+        <v>414.16</v>
       </c>
       <c r="D36" t="n">
-        <v>213.68</v>
+        <v>480.15</v>
       </c>
       <c r="E36" t="n">
-        <v>16.672</v>
+        <v>30</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pond40</t>
+          <t>pond32</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>213.68</v>
+        <v>480.15</v>
       </c>
       <c r="D37" t="n">
-        <v>289.32</v>
+        <v>523.75</v>
       </c>
       <c r="E37" t="n">
-        <v>13.188</v>
+        <v>26.34</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pond28</t>
+          <t>pond58</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>204.58</v>
+        <v>275.74</v>
       </c>
       <c r="D38" t="n">
-        <v>292.2</v>
+        <v>336.28</v>
       </c>
       <c r="E38" t="n">
-        <v>11.8</v>
+        <v>10.992</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pond8</t>
+          <t>pond46</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>381.06</v>
+        <v>185.02</v>
       </c>
       <c r="D39" t="n">
-        <v>467.56</v>
+        <v>250.92</v>
       </c>
       <c r="E39" t="n">
-        <v>2.604</v>
+        <v>13.448</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>pond16</t>
+          <t>pond40</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>467.56</v>
+        <v>250.92</v>
       </c>
       <c r="D40" t="n">
-        <v>499.04</v>
+        <v>301.96</v>
       </c>
       <c r="E40" t="n">
-        <v>0.096</v>
+        <v>9.964</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond9</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>499.04</v>
+        <v>301.96</v>
       </c>
       <c r="D41" t="n">
-        <v>570.85</v>
+        <v>389.86</v>
       </c>
       <c r="E41" t="n">
-        <v>30</v>
+        <v>6.244</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>pond42</t>
+          <t>pond37</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>292.2</v>
+        <v>389.86</v>
       </c>
       <c r="D42" t="n">
-        <v>354.84</v>
+        <v>476.82</v>
       </c>
       <c r="E42" t="n">
-        <v>7.656</v>
+        <v>1.148</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>pond39</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>385.44</v>
+        <v>476.82</v>
       </c>
       <c r="D43" t="n">
-        <v>419.94</v>
+        <v>556.22</v>
       </c>
       <c r="E43" t="n">
-        <v>4.396</v>
+        <v>30</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>pond13</t>
+          <t>pond56</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>354.84</v>
+        <v>416.18</v>
       </c>
       <c r="D44" t="n">
-        <v>433.06</v>
+        <v>484.96</v>
       </c>
       <c r="E44" t="n">
-        <v>3.444</v>
+        <v>1.004</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>pond4</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>554.88</v>
+        <v>484.96</v>
       </c>
       <c r="D45" t="n">
-        <v>593.9</v>
+        <v>554.95</v>
       </c>
       <c r="E45" t="n">
-        <v>24.004</v>
+        <v>30</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond20</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>476.18</v>
+        <v>400.96</v>
       </c>
       <c r="D46" t="n">
-        <v>576.98</v>
+        <v>433.28</v>
       </c>
       <c r="E46" t="n">
-        <v>30</v>
+        <v>5.092</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>pond56</t>
+          <t>pond4</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>576.98</v>
+        <v>556.22</v>
       </c>
       <c r="D47" t="n">
-        <v>622.0599999999999</v>
+        <v>620.54</v>
       </c>
       <c r="E47" t="n">
-        <v>27.192</v>
+        <v>27.228</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>pond49</t>
+          <t>pond18</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>570.85</v>
+        <v>523.75</v>
       </c>
       <c r="D48" t="n">
-        <v>652.39</v>
+        <v>595.95</v>
       </c>
       <c r="E48" t="n">
-        <v>26.976</v>
+        <v>22.7</v>
       </c>
     </row>
     <row r="49">
@@ -1359,55 +1359,55 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>pond29</t>
+          <t>pond48</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>289.32</v>
+        <v>336.28</v>
       </c>
       <c r="D49" t="n">
-        <v>341.66</v>
+        <v>412.48</v>
       </c>
       <c r="E49" t="n">
-        <v>10.064</v>
+        <v>7.452</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>pond58</t>
+          <t>pond29</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>341.66</v>
+        <v>595.95</v>
       </c>
       <c r="D50" t="n">
-        <v>422</v>
+        <v>648.29</v>
       </c>
       <c r="E50" t="n">
-        <v>5.64</v>
+        <v>19.576</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>pond1</t>
+          <t>pond33</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>593.9</v>
+        <v>412.48</v>
       </c>
       <c r="D51" t="n">
-        <v>638.2</v>
+        <v>493.22</v>
       </c>
       <c r="E51" t="n">
-        <v>21.684</v>
+        <v>3.448</v>
       </c>
     </row>
     <row r="52">
@@ -1416,17 +1416,17 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>pond26</t>
+          <t>pond63</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>652.39</v>
+        <v>554.95</v>
       </c>
       <c r="D52" t="n">
-        <v>706.17</v>
+        <v>624.85</v>
       </c>
       <c r="E52" t="n">
-        <v>23.728</v>
+        <v>25.2</v>
       </c>
     </row>
   </sheetData>
